--- a/mansourian/taxonomy 700 - Mechaic saeed1.xlsx
+++ b/mansourian/taxonomy 700 - Mechaic saeed1.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Mansooriyan\RCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس منصوریان\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="710TG01" sheetId="5" r:id="rId1"/>
-    <sheet name="710CN1" sheetId="2" r:id="rId2"/>
-    <sheet name="710CN2" sheetId="8" r:id="rId3"/>
-    <sheet name="710FR" sheetId="11" r:id="rId4"/>
-    <sheet name="710BE1" sheetId="10" r:id="rId5"/>
-    <sheet name="710MC1" sheetId="6" r:id="rId6"/>
-    <sheet name="710MC2" sheetId="9" r:id="rId7"/>
+    <sheet name="0710TG01" sheetId="5" r:id="rId1"/>
+    <sheet name="0710CN01" sheetId="2" r:id="rId2"/>
+    <sheet name="0710CN02" sheetId="8" r:id="rId3"/>
+    <sheet name="0710FR01" sheetId="11" r:id="rId4"/>
+    <sheet name="0710BE01" sheetId="10" r:id="rId5"/>
+    <sheet name="0710MC01" sheetId="6" r:id="rId6"/>
+    <sheet name="0710MC02" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'710TG01'!$A$1:$K$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0710TG01'!$A$1:$K$349</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -5620,8 +5620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1547"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75"/>
@@ -7142,7 +7142,7 @@
       <c r="J60" s="54"/>
       <c r="K60" s="54"/>
     </row>
-    <row r="61" spans="1:11" ht="44.25">
+    <row r="61" spans="1:11" ht="45.75">
       <c r="A61" s="13"/>
       <c r="B61" s="76" t="s">
         <v>801</v>
@@ -9005,7 +9005,7 @@
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" ht="28.5">
+    <row r="130" spans="1:11" ht="30">
       <c r="A130" s="20"/>
       <c r="B130" s="79" t="s">
         <v>801</v>
@@ -9034,7 +9034,7 @@
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" ht="28.5">
+    <row r="131" spans="1:11" ht="30">
       <c r="A131" s="20"/>
       <c r="B131" s="79" t="s">
         <v>801</v>
@@ -9063,7 +9063,7 @@
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" ht="28.5">
+    <row r="132" spans="1:11" ht="30">
       <c r="A132" s="20"/>
       <c r="B132" s="79" t="s">
         <v>801</v>
@@ -9092,7 +9092,7 @@
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" ht="28.5">
+    <row r="133" spans="1:11" ht="30">
       <c r="A133" s="22"/>
       <c r="B133" s="79" t="s">
         <v>801</v>
@@ -9121,7 +9121,7 @@
       <c r="J133" s="22"/>
       <c r="K133" s="22"/>
     </row>
-    <row r="134" spans="1:11" ht="28.5">
+    <row r="134" spans="1:11" ht="30">
       <c r="A134" s="22"/>
       <c r="B134" s="79" t="s">
         <v>801</v>
@@ -9150,7 +9150,7 @@
       <c r="J134" s="22"/>
       <c r="K134" s="22"/>
     </row>
-    <row r="135" spans="1:11" ht="28.5">
+    <row r="135" spans="1:11" ht="30">
       <c r="A135" s="22"/>
       <c r="B135" s="79" t="s">
         <v>801</v>
@@ -9179,7 +9179,7 @@
       <c r="J135" s="22"/>
       <c r="K135" s="22"/>
     </row>
-    <row r="136" spans="1:11" ht="28.5">
+    <row r="136" spans="1:11" ht="30">
       <c r="A136" s="20"/>
       <c r="B136" s="79" t="s">
         <v>801</v>
@@ -9208,7 +9208,7 @@
       <c r="J136" s="20"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" ht="28.5">
+    <row r="137" spans="1:11" ht="30">
       <c r="A137" s="20"/>
       <c r="B137" s="79" t="s">
         <v>801</v>
@@ -9237,7 +9237,7 @@
       <c r="J137" s="20"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" ht="42.75">
+    <row r="138" spans="1:11" ht="45">
       <c r="A138" s="20"/>
       <c r="B138" s="79" t="s">
         <v>801</v>
@@ -9353,7 +9353,7 @@
       <c r="J141" s="20"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" ht="28.5">
+    <row r="142" spans="1:11" ht="30">
       <c r="A142" s="20"/>
       <c r="B142" s="79" t="s">
         <v>801</v>
@@ -9382,7 +9382,7 @@
       <c r="J142" s="20"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" ht="42.75">
+    <row r="143" spans="1:11" ht="45">
       <c r="A143" s="20"/>
       <c r="B143" s="79" t="s">
         <v>801</v>
@@ -9411,7 +9411,7 @@
       <c r="J143" s="20"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" ht="42.75">
+    <row r="144" spans="1:11" ht="45">
       <c r="A144" s="20"/>
       <c r="B144" s="79" t="s">
         <v>801</v>
@@ -10453,7 +10453,7 @@
       <c r="J179" s="18"/>
       <c r="K179" s="18"/>
     </row>
-    <row r="180" spans="1:11" ht="30">
+    <row r="180" spans="1:11" ht="30.75">
       <c r="A180" s="18"/>
       <c r="B180" s="79" t="s">
         <v>801</v>
@@ -11634,7 +11634,7 @@
       <c r="J220" s="18"/>
       <c r="K220" s="18"/>
     </row>
-    <row r="221" spans="1:11" ht="30">
+    <row r="221" spans="1:11" ht="30.75">
       <c r="A221" s="18"/>
       <c r="B221" s="79" t="s">
         <v>801</v>
@@ -12552,7 +12552,7 @@
       <c r="J252" s="18"/>
       <c r="K252" s="18"/>
     </row>
-    <row r="253" spans="1:11" ht="30">
+    <row r="253" spans="1:11" ht="30.75">
       <c r="A253" s="83"/>
       <c r="B253" s="79" t="s">
         <v>801</v>
@@ -12610,7 +12610,7 @@
       <c r="J254" s="18"/>
       <c r="K254" s="18"/>
     </row>
-    <row r="255" spans="1:11" ht="30">
+    <row r="255" spans="1:11" ht="30.75">
       <c r="A255" s="83"/>
       <c r="B255" s="79" t="s">
         <v>801</v>
@@ -13246,7 +13246,7 @@
       <c r="J276" s="18"/>
       <c r="K276" s="18"/>
     </row>
-    <row r="277" spans="1:11" ht="30">
+    <row r="277" spans="1:11" ht="30.75">
       <c r="A277" s="18"/>
       <c r="B277" s="79" t="s">
         <v>801</v>
@@ -13501,7 +13501,7 @@
       <c r="J285" s="18"/>
       <c r="K285" s="18"/>
     </row>
-    <row r="286" spans="1:11" ht="30">
+    <row r="286" spans="1:11" ht="30.75">
       <c r="A286" s="83"/>
       <c r="B286" s="79" t="s">
         <v>801</v>
@@ -13559,7 +13559,7 @@
       <c r="J287" s="18"/>
       <c r="K287" s="18"/>
     </row>
-    <row r="288" spans="1:11" ht="30">
+    <row r="288" spans="1:11" ht="30.75">
       <c r="A288" s="83"/>
       <c r="B288" s="79" t="s">
         <v>801</v>
@@ -14195,7 +14195,7 @@
       <c r="J309" s="18"/>
       <c r="K309" s="18"/>
     </row>
-    <row r="310" spans="1:11" ht="30">
+    <row r="310" spans="1:11" ht="30.75">
       <c r="A310" s="18"/>
       <c r="B310" s="79" t="s">
         <v>801</v>
@@ -32281,11 +32281,11 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="8" customWidth="1"/>
@@ -33119,7 +33119,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
@@ -34089,10 +34089,10 @@
   <dimension ref="A1:Y111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
@@ -34427,7 +34427,7 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" s="16" customFormat="1" ht="21.75">
+    <row r="9" spans="1:25" s="16" customFormat="1" ht="15.75">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
         <v>21</v>
@@ -37666,7 +37666,7 @@
   <dimension ref="A1:K1273"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75"/>
@@ -55050,11 +55050,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="8" customWidth="1"/>
@@ -55151,7 +55151,7 @@
       <c r="J3" s="91"/>
       <c r="K3" s="91"/>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" ht="15">
+    <row r="4" spans="1:11" s="16" customFormat="1">
       <c r="A4" s="13"/>
       <c r="B4" s="15" t="s">
         <v>18</v>
@@ -56727,11 +56727,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:H49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" style="97" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="99" customWidth="1"/>

--- a/mansourian/taxonomy 700 - Mechaic saeed1.xlsx
+++ b/mansourian/taxonomy 700 - Mechaic saeed1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس منصوریان\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidar\Documents\GitHub\RCM_data_concatinating\mansourian\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F26A476-B6FB-4F39-8D81-132720626274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0710TG01" sheetId="5" r:id="rId1"/>
@@ -4737,12 +4738,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4768,7 +4769,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4827,14 +4828,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5617,30 +5618,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1547"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="67" customWidth="1"/>
     <col min="3" max="3" width="71" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="52" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="67" customWidth="1"/>
     <col min="7" max="7" width="24" style="67" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="52"/>
+    <col min="8" max="8" width="35.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="48" customFormat="1" ht="22.5">
+    <row r="1" spans="1:11" s="48" customFormat="1" ht="18">
       <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
@@ -32268,14 +32269,14 @@
       <c r="K1547" s="62"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K349"/>
+  <autoFilter ref="A1:K349" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -32288,13 +32289,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="16" style="8" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
@@ -33109,26 +33110,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="28.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
@@ -34082,7 +34083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -34094,16 +34095,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="27" customFormat="1" ht="47.25" customHeight="1">
@@ -37659,33 +37660,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:K1273"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+    <sheetView zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="123" customWidth="1"/>
     <col min="3" max="3" width="71" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="52" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="52" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="52"/>
+    <col min="4" max="4" width="13.140625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="52" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="48" customFormat="1" ht="22.5">
+    <row r="1" spans="1:11" s="48" customFormat="1" ht="18">
       <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
@@ -55047,28 +55048,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="32" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="97" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="97" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -56553,7 +56554,7 @@
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
     </row>
-    <row r="54" spans="1:11" s="52" customFormat="1" ht="37.5">
+    <row r="54" spans="1:11" s="52" customFormat="1" ht="56.25">
       <c r="A54" s="58"/>
       <c r="B54" s="59" t="s">
         <v>1096</v>
@@ -56724,28 +56725,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" style="97" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="99" customWidth="1"/>
-    <col min="3" max="3" width="25.875" style="101" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="97" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="97" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="99" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="101" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="97" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="97" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
